--- a/data/trans_dic/P16A17-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A17-Habitat-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001430160201088579</v>
+        <v>0.002483043870565282</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.001368363964612368</v>
+        <v>0.001366258235967956</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0006518346805734272</v>
+        <v>0.0006558708710392323</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01442283162206881</v>
+        <v>0.01531509644540541</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01256835421202622</v>
+        <v>0.01175970725638942</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.008414457220196096</v>
+        <v>0.008914376099933509</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.009125261895676801</v>
+        <v>0.009683216150508284</v>
       </c>
     </row>
     <row r="7">
@@ -679,13 +679,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002117334753927644</v>
+        <v>0.002178133149065094</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002089447151356169</v>
+        <v>0.002263352855786491</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.001299411657894364</v>
+        <v>0.001250228904632619</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.007609631268060359</v>
+        <v>0.008279423989096955</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01226477185725376</v>
+        <v>0.01237729338008152</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01288573666393267</v>
+        <v>0.01270727345283145</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.007332342342091762</v>
+        <v>0.007045281269381632</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005878631311651675</v>
+        <v>0.005725821718766202</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002507778394982929</v>
+        <v>0.002494572427340696</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002720018185070576</v>
+        <v>0.002687107219631969</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.001928124463513376</v>
+        <v>0.002004897302583045</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02348800045732117</v>
+        <v>0.02263547550839982</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01953014076606065</v>
+        <v>0.01880277997501515</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01513450356733648</v>
+        <v>0.01523605913628085</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01154856203221504</v>
+        <v>0.0117708600355013</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.003522321802590572</v>
+        <v>0.003853313887494302</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002789798837294667</v>
+        <v>0.002962724285340173</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001955878192147843</v>
+        <v>0.001968613852167033</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.00391085529618617</v>
+        <v>0.003567662658823336</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0157007009886834</v>
+        <v>0.0160964788840606</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01283920306134864</v>
+        <v>0.01362524279799153</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01240862870580625</v>
+        <v>0.01224151265239629</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01243689792221966</v>
+        <v>0.01202716941120574</v>
       </c>
     </row>
     <row r="16">
@@ -857,7 +857,7 @@
         <v>0.005103081089591228</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.004891766763541077</v>
+        <v>0.004891766763541078</v>
       </c>
     </row>
     <row r="17">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004759827443151944</v>
+        <v>0.004661606530646006</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003823710410201663</v>
+        <v>0.003830045090362292</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003156631739726414</v>
+        <v>0.003234752368892207</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.003196981177204124</v>
+        <v>0.003320410546481231</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01039927954728383</v>
+        <v>0.01023752702259107</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.009577382402697163</v>
+        <v>0.009826329673771079</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.008092683746887307</v>
+        <v>0.008093564605366345</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.006954841523604654</v>
+        <v>0.007163629539770858</v>
       </c>
     </row>
     <row r="19">
@@ -1046,16 +1046,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>984</v>
+        <v>1709</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9928</v>
+        <v>10542</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8689</v>
+        <v>8130</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5662</v>
+        <v>5998</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6690</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2174</v>
+        <v>2236</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2179</v>
+        <v>2360</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1389</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="11">
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7355</v>
+        <v>8002</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12593</v>
+        <v>12708</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13439</v>
+        <v>13253</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7839</v>
+        <v>7532</v>
       </c>
     </row>
     <row r="12">
@@ -1214,16 +1214,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4020</v>
+        <v>3916</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1942</v>
+        <v>1932</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2135</v>
+        <v>2109</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1564</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="15">
@@ -1234,16 +1234,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16062</v>
+        <v>15479</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15122</v>
+        <v>14559</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11881</v>
+        <v>11960</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9365</v>
+        <v>9545</v>
       </c>
     </row>
     <row r="16">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3658</v>
+        <v>4002</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2911</v>
+        <v>3092</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2042</v>
+        <v>2055</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4360</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="19">
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16307</v>
+        <v>16718</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13399</v>
+        <v>14219</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12952</v>
+        <v>12777</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13866</v>
+        <v>13409</v>
       </c>
     </row>
     <row r="20">
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>16076</v>
+        <v>15744</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>13520</v>
+        <v>13543</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11189</v>
+        <v>11466</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>11918</v>
+        <v>12378</v>
       </c>
     </row>
     <row r="23">
@@ -1402,16 +1402,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>35122</v>
+        <v>34576</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>33865</v>
+        <v>34745</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>28685</v>
+        <v>28688</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25928</v>
+        <v>26706</v>
       </c>
     </row>
     <row r="24">
